--- a/Code/Results/Cases/Case_5_130/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_130/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.68832143844568</v>
+        <v>31.03919159155054</v>
       </c>
       <c r="C2">
-        <v>16.38502083354899</v>
+        <v>11.80897108301059</v>
       </c>
       <c r="D2">
-        <v>2.640328819182189</v>
+        <v>3.638390504451045</v>
       </c>
       <c r="E2">
-        <v>5.564631435341803</v>
+        <v>9.781564457095438</v>
       </c>
       <c r="F2">
-        <v>45.78957110129336</v>
+        <v>57.2142934471481</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.734372761047828</v>
+        <v>9.924875537058675</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.882028143912977</v>
+        <v>12.52259699289024</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.02974919791676</v>
+        <v>22.52100569876991</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.98527510156093</v>
+        <v>30.75136037657967</v>
       </c>
       <c r="C3">
-        <v>15.18869335118895</v>
+        <v>11.45441418776775</v>
       </c>
       <c r="D3">
-        <v>2.475944573973577</v>
+        <v>3.598486616254093</v>
       </c>
       <c r="E3">
-        <v>5.576416427665265</v>
+        <v>9.791276608609015</v>
       </c>
       <c r="F3">
-        <v>44.33270736551678</v>
+        <v>57.1017890829129</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.789727606368789</v>
+        <v>9.944898989191147</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.709882531421139</v>
+        <v>12.5314107371746</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.25898552650091</v>
+        <v>22.58261734733784</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.91597812144077</v>
+        <v>30.58223800015957</v>
       </c>
       <c r="C4">
-        <v>14.42048747583823</v>
+        <v>11.23524848936596</v>
       </c>
       <c r="D4">
-        <v>2.372767334853831</v>
+        <v>3.57333032343898</v>
       </c>
       <c r="E4">
-        <v>5.584531645654101</v>
+        <v>9.797639032715571</v>
       </c>
       <c r="F4">
-        <v>43.46533158783758</v>
+        <v>57.0464265992056</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.82476442878842</v>
+        <v>9.957879266023536</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.607997276525946</v>
+        <v>12.53898630945128</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.40407628145236</v>
+        <v>22.62246927595919</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.47460035828616</v>
+        <v>30.51529977642609</v>
       </c>
       <c r="C5">
-        <v>14.09881034473045</v>
+        <v>11.14572470794361</v>
       </c>
       <c r="D5">
-        <v>2.330123418664456</v>
+        <v>3.562915946699569</v>
       </c>
       <c r="E5">
-        <v>5.588051883830551</v>
+        <v>9.800332367482248</v>
       </c>
       <c r="F5">
-        <v>43.11870034119557</v>
+        <v>57.02731752222356</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.839314766434026</v>
+        <v>9.963341812148633</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.567439156219676</v>
+        <v>12.54261745264074</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.46428090750719</v>
+        <v>22.63921799608941</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.40098113939795</v>
+        <v>30.50430624710896</v>
       </c>
       <c r="C6">
-        <v>14.04487073674687</v>
+        <v>11.1308512932535</v>
       </c>
       <c r="D6">
-        <v>2.323005443812143</v>
+        <v>3.561176855484029</v>
       </c>
       <c r="E6">
-        <v>5.588649085019457</v>
+        <v>9.800785676260732</v>
       </c>
       <c r="F6">
-        <v>43.06155575929498</v>
+        <v>57.02435295723856</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.841747546672236</v>
+        <v>9.964259326765802</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.560762645819956</v>
+        <v>12.54325325405595</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.47434273962071</v>
+        <v>22.6420298426204</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.91004785126901</v>
+        <v>30.5813271425325</v>
       </c>
       <c r="C7">
-        <v>14.41618435487491</v>
+        <v>11.23404178532466</v>
       </c>
       <c r="D7">
-        <v>2.372194686118233</v>
+        <v>3.573190529091277</v>
       </c>
       <c r="E7">
-        <v>5.5845782671008</v>
+        <v>9.797674948349719</v>
       </c>
       <c r="F7">
-        <v>43.46062910972777</v>
+        <v>57.04615491090328</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.824959544956716</v>
+        <v>9.957952234740564</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.60744640049489</v>
+        <v>12.53903307775075</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.40488386599031</v>
+        <v>22.62269309482588</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.10616247206382</v>
+        <v>30.93841035837481</v>
       </c>
       <c r="C8">
-        <v>15.97940582550552</v>
+        <v>11.68711554888633</v>
       </c>
       <c r="D8">
-        <v>2.584092151128728</v>
+        <v>3.624768659502345</v>
       </c>
       <c r="E8">
-        <v>5.568507346237206</v>
+        <v>9.784830507987847</v>
       </c>
       <c r="F8">
-        <v>45.28160320706424</v>
+        <v>57.17265778689499</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.753246980544578</v>
+        <v>9.931637605054732</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.821881504474772</v>
+        <v>12.52518683756895</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.10788065291977</v>
+        <v>22.54182985460955</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.21786917957898</v>
+        <v>31.69584672181382</v>
       </c>
       <c r="C9">
-        <v>18.78661956207034</v>
+        <v>12.55753325733106</v>
       </c>
       <c r="D9">
-        <v>2.98378098650082</v>
+        <v>3.72064164927088</v>
       </c>
       <c r="E9">
-        <v>5.544388986576224</v>
+        <v>9.762799133512143</v>
       </c>
       <c r="F9">
-        <v>49.07023621891363</v>
+        <v>57.52930836514138</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.620502153314742</v>
+        <v>9.885452127500303</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.272750770156021</v>
+        <v>12.5152040514705</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.56071317291745</v>
+        <v>22.3992895940628</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.11860399070505</v>
+        <v>32.28274083786092</v>
       </c>
       <c r="C10">
-        <v>20.70610806584079</v>
+        <v>13.17813083140934</v>
       </c>
       <c r="D10">
-        <v>3.271233196599131</v>
+        <v>3.787773898280137</v>
       </c>
       <c r="E10">
-        <v>5.531891949993204</v>
+        <v>9.748522915615615</v>
       </c>
       <c r="F10">
-        <v>51.99539616521351</v>
+        <v>57.85700943273567</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.527101391739575</v>
+        <v>9.854788709180932</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.623159267091161</v>
+        <v>12.51833087046732</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.18194570845639</v>
+        <v>22.30432079342284</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.4143016378971</v>
+        <v>32.55533601695962</v>
       </c>
       <c r="C11">
-        <v>21.55221594052056</v>
+        <v>13.45489887718426</v>
       </c>
       <c r="D11">
-        <v>3.401655336743819</v>
+        <v>3.817577881973422</v>
       </c>
       <c r="E11">
-        <v>5.527546535463013</v>
+        <v>9.742440155650183</v>
       </c>
       <c r="F11">
-        <v>53.36094090731807</v>
+        <v>58.02017144505981</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.485333634664912</v>
+        <v>9.841541836947963</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.787057350647281</v>
+        <v>12.52202057339671</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.01530213717818</v>
+        <v>22.26323205396096</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.93221136809375</v>
+        <v>32.65928184564271</v>
       </c>
       <c r="C12">
-        <v>21.86911289246364</v>
+        <v>13.55879991973048</v>
       </c>
       <c r="D12">
-        <v>3.451097289242667</v>
+        <v>3.828756638737763</v>
       </c>
       <c r="E12">
-        <v>5.526115532004757</v>
+        <v>9.740195734021814</v>
       </c>
       <c r="F12">
-        <v>53.88357275041328</v>
+        <v>58.08396225767285</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.469604322449277</v>
+        <v>9.836626004886687</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.849811916573305</v>
+        <v>12.52374311024328</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.95308808767566</v>
+        <v>22.2479765795825</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.81992673495884</v>
+        <v>32.63686462911248</v>
       </c>
       <c r="C13">
-        <v>21.80101251290495</v>
+        <v>13.53646482316557</v>
       </c>
       <c r="D13">
-        <v>3.440444829814365</v>
+        <v>3.826353894957728</v>
       </c>
       <c r="E13">
-        <v>5.526413784824716</v>
+        <v>9.740676489950554</v>
       </c>
       <c r="F13">
-        <v>53.7707585700399</v>
+        <v>58.07013496484073</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.472988317156701</v>
+        <v>9.837680256500398</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.836265037123866</v>
+        <v>12.52335767518878</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.96644593917968</v>
+        <v>22.25124859932913</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.45447289872381</v>
+        <v>32.56387377661788</v>
       </c>
       <c r="C14">
-        <v>21.57835505270029</v>
+        <v>13.46346559512084</v>
       </c>
       <c r="D14">
-        <v>3.405721215161928</v>
+        <v>3.81849972628629</v>
       </c>
       <c r="E14">
-        <v>5.527424364810327</v>
+        <v>9.742254324633222</v>
       </c>
       <c r="F14">
-        <v>53.40382373304975</v>
+        <v>58.02537950421853</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.484037928441682</v>
+        <v>9.841135397669348</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.792206069622308</v>
+        <v>12.5221557721658</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.01016538887273</v>
+        <v>22.26197088487587</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.2442831432223</v>
+        <v>32.51925592667892</v>
       </c>
       <c r="C15">
-        <v>21.44152698002144</v>
+        <v>13.41863058756184</v>
       </c>
       <c r="D15">
-        <v>3.384462410883095</v>
+        <v>3.81367478971504</v>
       </c>
       <c r="E15">
-        <v>5.528072038448571</v>
+        <v>9.743228470149598</v>
       </c>
       <c r="F15">
-        <v>53.17980399319938</v>
+        <v>57.9982259106647</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.490816969396306</v>
+        <v>9.843264841323423</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.765310107192457</v>
+        <v>12.5214619150869</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.03706340505021</v>
+        <v>22.26857817947872</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.03347264167513</v>
+        <v>32.26503162235777</v>
       </c>
       <c r="C16">
-        <v>20.65029981383286</v>
+        <v>13.15992236424332</v>
       </c>
       <c r="D16">
-        <v>3.262711306333089</v>
+        <v>3.785811204835411</v>
       </c>
       <c r="E16">
-        <v>5.532204656968596</v>
+        <v>9.74892870324935</v>
       </c>
       <c r="F16">
-        <v>51.90689643255848</v>
+        <v>57.84662818772549</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.529844162454873</v>
+        <v>9.855668509266659</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.612541944367221</v>
+        <v>12.51813530680833</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.19295617790355</v>
+        <v>22.30704856551451</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.28476563946445</v>
+        <v>32.11044926723483</v>
       </c>
       <c r="C17">
-        <v>20.15822935077689</v>
+        <v>12.99971306552978</v>
       </c>
       <c r="D17">
-        <v>3.188000938973597</v>
+        <v>3.768528366144058</v>
       </c>
       <c r="E17">
-        <v>5.535097170120872</v>
+        <v>9.752530882977887</v>
       </c>
       <c r="F17">
-        <v>51.13525395358432</v>
+        <v>57.75722243288816</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.553959670089408</v>
+        <v>9.863457227978641</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.520000898434478</v>
+        <v>12.51667479884288</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.29008857212247</v>
+        <v>22.33119015162922</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.85185527763666</v>
+        <v>32.0220713083925</v>
       </c>
       <c r="C18">
-        <v>19.87262820714415</v>
+        <v>12.90704874918299</v>
       </c>
       <c r="D18">
-        <v>3.144990177024108</v>
+        <v>3.758518668300444</v>
       </c>
       <c r="E18">
-        <v>5.536885403551949</v>
+        <v>9.754641511148748</v>
       </c>
       <c r="F18">
-        <v>50.6946679077227</v>
+        <v>57.70712620813944</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.567899209832391</v>
+        <v>9.868003204021658</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.467193385873578</v>
+        <v>12.51604821508293</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.34648353797134</v>
+        <v>22.34527463568509</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.70488063933104</v>
+        <v>31.99224236586373</v>
       </c>
       <c r="C19">
-        <v>19.77547544488328</v>
+        <v>12.87558900770888</v>
       </c>
       <c r="D19">
-        <v>3.130417883265675</v>
+        <v>3.755117747241354</v>
       </c>
       <c r="E19">
-        <v>5.537511662741355</v>
+        <v>9.755362794876088</v>
       </c>
       <c r="F19">
-        <v>50.54603700816597</v>
+        <v>57.69039309604366</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.572631203677647</v>
+        <v>9.869553762890625</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.449384683780522</v>
+        <v>12.51587274567</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.36566643564769</v>
+        <v>22.35007755613885</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.36470010630272</v>
+        <v>32.12685021492725</v>
       </c>
       <c r="C20">
-        <v>20.21087500552316</v>
+        <v>13.01682185374432</v>
       </c>
       <c r="D20">
-        <v>3.195957370609547</v>
+        <v>3.770375314414344</v>
       </c>
       <c r="E20">
-        <v>5.534776223881965</v>
+        <v>9.752143415777139</v>
       </c>
       <c r="F20">
-        <v>51.2170578708868</v>
+        <v>57.76660256960759</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.551385510289276</v>
+        <v>9.862621266867141</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.52980835623266</v>
+        <v>12.51680818452782</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.27969363860215</v>
+        <v>22.32859965452628</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.56087380809274</v>
+        <v>32.58529411942738</v>
       </c>
       <c r="C21">
-        <v>21.64384667983821</v>
+        <v>13.48493260495883</v>
       </c>
       <c r="D21">
-        <v>3.415918000424644</v>
+        <v>3.82080961310969</v>
       </c>
       <c r="E21">
-        <v>5.527121513558038</v>
+        <v>9.741789276966589</v>
       </c>
       <c r="F21">
-        <v>53.51144632186072</v>
+        <v>58.03847103884369</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.480790164277882</v>
+        <v>9.840117816055386</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.805128100771894</v>
+        <v>12.52249997742595</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.99729904311766</v>
+        <v>22.25881323997883</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.07279070522867</v>
+        <v>32.88906928533741</v>
       </c>
       <c r="C22">
-        <v>22.56017128794909</v>
+        <v>13.78555242829392</v>
       </c>
       <c r="D22">
-        <v>3.560052023961969</v>
+        <v>3.853144793930692</v>
       </c>
       <c r="E22">
-        <v>5.523382805646391</v>
+        <v>9.735365985914246</v>
       </c>
       <c r="F22">
-        <v>55.04356807792218</v>
+        <v>58.22782696162042</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.435151148897217</v>
+        <v>9.825995908763929</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.989120081223739</v>
+        <v>12.52811569771247</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.81797998741385</v>
+        <v>22.21497544384424</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.26820388387703</v>
+        <v>32.72658752428649</v>
       </c>
       <c r="C23">
-        <v>22.07281477695967</v>
+        <v>13.62562537331287</v>
       </c>
       <c r="D23">
-        <v>3.483051115094142</v>
+        <v>3.83594477387874</v>
       </c>
       <c r="E23">
-        <v>5.525254051179644</v>
+        <v>9.738762828522201</v>
       </c>
       <c r="F23">
-        <v>54.22264374940477</v>
+        <v>58.1257037129411</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.459469911400708</v>
+        <v>9.833479632038312</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.890530089136996</v>
+        <v>12.52494529305463</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.91317479710839</v>
+        <v>22.23821035487267</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.32856944699721</v>
+        <v>32.11943380272862</v>
       </c>
       <c r="C24">
-        <v>20.18708235346878</v>
+        <v>13.00908869990671</v>
       </c>
       <c r="D24">
-        <v>3.192360458419058</v>
+        <v>3.769540538106143</v>
       </c>
       <c r="E24">
-        <v>5.534920935001029</v>
+        <v>9.752318466067447</v>
       </c>
       <c r="F24">
-        <v>51.18006488276347</v>
+        <v>57.76235774552148</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.552549052459375</v>
+        <v>9.862998992614438</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.525373175494659</v>
+        <v>12.51674721710584</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.28439147341461</v>
+        <v>22.32977017923066</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.12697631891315</v>
+        <v>31.48526674141793</v>
       </c>
       <c r="C25">
-        <v>18.05348008315971</v>
+        <v>12.32485111582755</v>
       </c>
       <c r="D25">
-        <v>2.877034708876679</v>
+        <v>3.69527947371387</v>
       </c>
       <c r="E25">
-        <v>5.550056121812633</v>
+        <v>9.768422744724386</v>
       </c>
       <c r="F25">
-        <v>48.02139950111659</v>
+        <v>57.42124195434457</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.655634970223884</v>
+        <v>9.897370032262437</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.147488867936323</v>
+        <v>12.51606651179696</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.70481937368566</v>
+        <v>22.43613615576085</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_130/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_130/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.03919159155054</v>
+        <v>29.68832143844565</v>
       </c>
       <c r="C2">
-        <v>11.80897108301059</v>
+        <v>16.38502083354882</v>
       </c>
       <c r="D2">
-        <v>3.638390504451045</v>
+        <v>2.640328819181804</v>
       </c>
       <c r="E2">
-        <v>9.781564457095438</v>
+        <v>5.564631435341673</v>
       </c>
       <c r="F2">
-        <v>57.2142934471481</v>
+        <v>45.78957110129341</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.924875537058675</v>
+        <v>5.734372761047859</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.52259699289024</v>
+        <v>7.882028143913071</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.52100569876991</v>
+        <v>15.02974919791684</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.75136037657967</v>
+        <v>27.98527510156093</v>
       </c>
       <c r="C3">
-        <v>11.45441418776775</v>
+        <v>15.18869335118894</v>
       </c>
       <c r="D3">
-        <v>3.598486616254093</v>
+        <v>2.475944573973534</v>
       </c>
       <c r="E3">
-        <v>9.791276608609015</v>
+        <v>5.576416427665265</v>
       </c>
       <c r="F3">
-        <v>57.1017890829129</v>
+        <v>44.33270736551677</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.944898989191147</v>
+        <v>5.789727606368819</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.5314107371746</v>
+        <v>7.709882531421155</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.58261734733784</v>
+        <v>15.25898552650088</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.58223800015957</v>
+        <v>26.9159781214408</v>
       </c>
       <c r="C4">
-        <v>11.23524848936596</v>
+        <v>14.42048747583829</v>
       </c>
       <c r="D4">
-        <v>3.57333032343898</v>
+        <v>2.372767334853879</v>
       </c>
       <c r="E4">
-        <v>9.797639032715571</v>
+        <v>5.584531645654101</v>
       </c>
       <c r="F4">
-        <v>57.0464265992056</v>
+        <v>43.46533158783758</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.957879266023536</v>
+        <v>5.82476442878842</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.53898630945128</v>
+        <v>7.607997276525934</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.62246927595919</v>
+        <v>15.40407628145236</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.51529977642609</v>
+        <v>26.47460035828617</v>
       </c>
       <c r="C5">
-        <v>11.14572470794361</v>
+        <v>14.09881034473039</v>
       </c>
       <c r="D5">
-        <v>3.562915946699569</v>
+        <v>2.330123418664319</v>
       </c>
       <c r="E5">
-        <v>9.800332367482248</v>
+        <v>5.588051883830421</v>
       </c>
       <c r="F5">
-        <v>57.02731752222356</v>
+        <v>43.11870034119556</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.963341812148633</v>
+        <v>5.83931476643396</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.54261745264074</v>
+        <v>7.567439156219646</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.63921799608941</v>
+        <v>15.46428090750717</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30.50430624710896</v>
+        <v>26.40098113939786</v>
       </c>
       <c r="C6">
-        <v>11.1308512932535</v>
+        <v>14.04487073674686</v>
       </c>
       <c r="D6">
-        <v>3.561176855484029</v>
+        <v>2.323005443812255</v>
       </c>
       <c r="E6">
-        <v>9.800785676260732</v>
+        <v>5.588649085019521</v>
       </c>
       <c r="F6">
-        <v>57.02435295723856</v>
+        <v>43.06155575929482</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.964259326765802</v>
+        <v>5.841747546672203</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.54325325405595</v>
+        <v>7.560762645819972</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.6420298426204</v>
+        <v>15.47434273962063</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.5813271425325</v>
+        <v>26.910047851269</v>
       </c>
       <c r="C7">
-        <v>11.23404178532466</v>
+        <v>14.41618435487488</v>
       </c>
       <c r="D7">
-        <v>3.573190529091277</v>
+        <v>2.372194686118394</v>
       </c>
       <c r="E7">
-        <v>9.797674948349719</v>
+        <v>5.584578267100797</v>
       </c>
       <c r="F7">
-        <v>57.04615491090328</v>
+        <v>43.46062910972774</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.957952234740564</v>
+        <v>5.824959544956653</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.53903307775075</v>
+        <v>7.607446400494933</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.62269309482588</v>
+        <v>15.40488386599028</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.93841035837481</v>
+        <v>29.10616247206387</v>
       </c>
       <c r="C8">
-        <v>11.68711554888633</v>
+        <v>15.97940582550547</v>
       </c>
       <c r="D8">
-        <v>3.624768659502345</v>
+        <v>2.584092151128632</v>
       </c>
       <c r="E8">
-        <v>9.784830507987847</v>
+        <v>5.568507346237138</v>
       </c>
       <c r="F8">
-        <v>57.17265778689499</v>
+        <v>45.28160320706444</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.931637605054732</v>
+        <v>5.753246980544611</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.52518683756895</v>
+        <v>7.821881504474757</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.54182985460955</v>
+        <v>15.10788065291992</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.69584672181382</v>
+        <v>33.21786917957896</v>
       </c>
       <c r="C9">
-        <v>12.55753325733106</v>
+        <v>18.78661956207039</v>
       </c>
       <c r="D9">
-        <v>3.72064164927088</v>
+        <v>2.983780986501021</v>
       </c>
       <c r="E9">
-        <v>9.762799133512143</v>
+        <v>5.544388986576157</v>
       </c>
       <c r="F9">
-        <v>57.52930836514138</v>
+        <v>49.07023621891348</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.885452127500303</v>
+        <v>5.62050215331458</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.5152040514705</v>
+        <v>8.272750770155996</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.3992895940628</v>
+        <v>14.56071317291732</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.28274083786092</v>
+        <v>36.11860399070499</v>
       </c>
       <c r="C10">
-        <v>13.17813083140934</v>
+        <v>20.70610806584092</v>
       </c>
       <c r="D10">
-        <v>3.787773898280137</v>
+        <v>3.271233196599343</v>
       </c>
       <c r="E10">
-        <v>9.748522915615615</v>
+        <v>5.531891949993269</v>
       </c>
       <c r="F10">
-        <v>57.85700943273567</v>
+        <v>51.99539616521359</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.854788709180932</v>
+        <v>5.527101391739507</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.51833087046732</v>
+        <v>8.623159267091161</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.30432079342284</v>
+        <v>14.18194570845641</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.55533601695962</v>
+        <v>37.41430163789702</v>
       </c>
       <c r="C11">
-        <v>13.45489887718426</v>
+        <v>21.55221594052037</v>
       </c>
       <c r="D11">
-        <v>3.817577881973422</v>
+        <v>3.401655336743959</v>
       </c>
       <c r="E11">
-        <v>9.742440155650183</v>
+        <v>5.527546535462949</v>
       </c>
       <c r="F11">
-        <v>58.02017144505981</v>
+        <v>53.3609409073181</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.841541836947963</v>
+        <v>5.485333634664818</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.52202057339671</v>
+        <v>8.787057350647302</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.26323205396096</v>
+        <v>14.01530213717833</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.65928184564271</v>
+        <v>37.93221136809372</v>
       </c>
       <c r="C12">
-        <v>13.55879991973048</v>
+        <v>21.86911289246364</v>
       </c>
       <c r="D12">
-        <v>3.828756638737763</v>
+        <v>3.451097289242613</v>
       </c>
       <c r="E12">
-        <v>9.740195734021814</v>
+        <v>5.52611553200476</v>
       </c>
       <c r="F12">
-        <v>58.08396225767285</v>
+        <v>53.88357275041324</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.836626004886687</v>
+        <v>5.46960432244931</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.52374311024328</v>
+        <v>8.849811916573294</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.2479765795825</v>
+        <v>13.95308808767568</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.63686462911248</v>
+        <v>37.81992673495898</v>
       </c>
       <c r="C13">
-        <v>13.53646482316557</v>
+        <v>21.80101251290485</v>
       </c>
       <c r="D13">
-        <v>3.826353894957728</v>
+        <v>3.44044482981444</v>
       </c>
       <c r="E13">
-        <v>9.740676489950554</v>
+        <v>5.526413784824387</v>
       </c>
       <c r="F13">
-        <v>58.07013496484073</v>
+        <v>53.7707585700399</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.837680256500398</v>
+        <v>5.472988317156546</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.52335767518878</v>
+        <v>8.836265037123852</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.25124859932913</v>
+        <v>13.96644593917964</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.56387377661788</v>
+        <v>37.45447289872383</v>
       </c>
       <c r="C14">
-        <v>13.46346559512084</v>
+        <v>21.57835505270024</v>
       </c>
       <c r="D14">
-        <v>3.81849972628629</v>
+        <v>3.405721215161789</v>
       </c>
       <c r="E14">
-        <v>9.742254324633222</v>
+        <v>5.527424364810193</v>
       </c>
       <c r="F14">
-        <v>58.02537950421853</v>
+        <v>53.40382373304973</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.841135397669348</v>
+        <v>5.484037928441684</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.5221557721658</v>
+        <v>8.792206069622289</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.26197088487587</v>
+        <v>14.01016538887274</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.51925592667892</v>
+        <v>37.24428314322225</v>
       </c>
       <c r="C15">
-        <v>13.41863058756184</v>
+        <v>21.44152698002138</v>
       </c>
       <c r="D15">
-        <v>3.81367478971504</v>
+        <v>3.384462410882915</v>
       </c>
       <c r="E15">
-        <v>9.743228470149598</v>
+        <v>5.528072038448574</v>
       </c>
       <c r="F15">
-        <v>57.9982259106647</v>
+        <v>53.17980399319928</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.843264841323423</v>
+        <v>5.490816969396401</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.5214619150869</v>
+        <v>8.765310107192516</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.26857817947872</v>
+        <v>14.03706340505021</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.26503162235777</v>
+        <v>36.03347264167505</v>
       </c>
       <c r="C16">
-        <v>13.15992236424332</v>
+        <v>20.65029981383281</v>
       </c>
       <c r="D16">
-        <v>3.785811204835411</v>
+        <v>3.262711306332707</v>
       </c>
       <c r="E16">
-        <v>9.74892870324935</v>
+        <v>5.532204656968334</v>
       </c>
       <c r="F16">
-        <v>57.84662818772549</v>
+        <v>51.90689643255865</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.855668509266659</v>
+        <v>5.529844162454874</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.51813530680833</v>
+        <v>8.612541944367155</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.30704856551451</v>
+        <v>14.19295617790375</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.11044926723483</v>
+        <v>35.28476563946452</v>
       </c>
       <c r="C17">
-        <v>12.99971306552978</v>
+        <v>20.15822935077701</v>
       </c>
       <c r="D17">
-        <v>3.768528366144058</v>
+        <v>3.18800093897347</v>
       </c>
       <c r="E17">
-        <v>9.752530882977887</v>
+        <v>5.535097170120739</v>
       </c>
       <c r="F17">
-        <v>57.75722243288816</v>
+        <v>51.13525395358424</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.863457227978641</v>
+        <v>5.553959670089446</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.51667479884288</v>
+        <v>8.52000089843443</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.33119015162922</v>
+        <v>14.29008857212235</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.0220713083925</v>
+        <v>34.85185527763669</v>
       </c>
       <c r="C18">
-        <v>12.90704874918299</v>
+        <v>19.8726282071442</v>
       </c>
       <c r="D18">
-        <v>3.758518668300444</v>
+        <v>3.144990177024076</v>
       </c>
       <c r="E18">
-        <v>9.754641511148748</v>
+        <v>5.536885403551945</v>
       </c>
       <c r="F18">
-        <v>57.70712620813944</v>
+        <v>50.69466790772262</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.868003204021658</v>
+        <v>5.56789920983242</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.51604821508293</v>
+        <v>8.467193385873532</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.34527463568509</v>
+        <v>14.34648353797124</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.99224236586373</v>
+        <v>34.70488063933104</v>
       </c>
       <c r="C19">
-        <v>12.87558900770888</v>
+        <v>19.77547544488328</v>
       </c>
       <c r="D19">
-        <v>3.755117747241354</v>
+        <v>3.130417883265569</v>
       </c>
       <c r="E19">
-        <v>9.755362794876088</v>
+        <v>5.537511662741426</v>
       </c>
       <c r="F19">
-        <v>57.69039309604366</v>
+        <v>50.54603700816601</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.869553762890625</v>
+        <v>5.572631203677836</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.51587274567</v>
+        <v>8.449384683780568</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.35007755613885</v>
+        <v>14.36566643564784</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.12685021492725</v>
+        <v>35.3647001063027</v>
       </c>
       <c r="C20">
-        <v>13.01682185374432</v>
+        <v>20.21087500552333</v>
       </c>
       <c r="D20">
-        <v>3.770375314414344</v>
+        <v>3.19595737060945</v>
       </c>
       <c r="E20">
-        <v>9.752143415777139</v>
+        <v>5.534776223882027</v>
       </c>
       <c r="F20">
-        <v>57.76660256960759</v>
+        <v>51.21705787088673</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.862621266867141</v>
+        <v>5.551385510289367</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.51680818452782</v>
+        <v>8.529808356232612</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.32859965452628</v>
+        <v>14.2796936386022</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.58529411942738</v>
+        <v>37.56087380809277</v>
       </c>
       <c r="C21">
-        <v>13.48493260495883</v>
+        <v>21.64384667983845</v>
       </c>
       <c r="D21">
-        <v>3.82080961310969</v>
+        <v>3.415918000424517</v>
       </c>
       <c r="E21">
-        <v>9.741789276966589</v>
+        <v>5.52712151355804</v>
       </c>
       <c r="F21">
-        <v>58.03847103884369</v>
+        <v>53.5114463218607</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.840117816055386</v>
+        <v>5.480790164277947</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.52249997742595</v>
+        <v>8.805128100771871</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.25881323997883</v>
+        <v>13.99729904311755</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.88906928533741</v>
+        <v>39.07279070522875</v>
       </c>
       <c r="C22">
-        <v>13.78555242829392</v>
+        <v>22.56017128794909</v>
       </c>
       <c r="D22">
-        <v>3.853144793930692</v>
+        <v>3.560052023961979</v>
       </c>
       <c r="E22">
-        <v>9.735365985914246</v>
+        <v>5.523382805646064</v>
       </c>
       <c r="F22">
-        <v>58.22782696162042</v>
+        <v>55.04356807792217</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.825995908763929</v>
+        <v>5.435151148897005</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.52811569771247</v>
+        <v>8.989120081223687</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.21497544384424</v>
+        <v>13.81797998741377</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.72658752428649</v>
+        <v>38.26820388387694</v>
       </c>
       <c r="C23">
-        <v>13.62562537331287</v>
+        <v>22.07281477695979</v>
       </c>
       <c r="D23">
-        <v>3.83594477387874</v>
+        <v>3.483051115093899</v>
       </c>
       <c r="E23">
-        <v>9.738762828522201</v>
+        <v>5.525254051179515</v>
       </c>
       <c r="F23">
-        <v>58.1257037129411</v>
+        <v>54.22264374940462</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.833479632038312</v>
+        <v>5.459469911400683</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.52494529305463</v>
+        <v>8.890530089136961</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.23821035487267</v>
+        <v>13.91317479710825</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.11943380272862</v>
+        <v>35.32856944699719</v>
       </c>
       <c r="C24">
-        <v>13.00908869990671</v>
+        <v>20.18708235346876</v>
       </c>
       <c r="D24">
-        <v>3.769540538106143</v>
+        <v>3.192360458419067</v>
       </c>
       <c r="E24">
-        <v>9.752318466067447</v>
+        <v>5.534920935001096</v>
       </c>
       <c r="F24">
-        <v>57.76235774552148</v>
+        <v>51.18006488276345</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.862998992614438</v>
+        <v>5.552549052459383</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.51674721710584</v>
+        <v>8.52537317549468</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.32977017923066</v>
+        <v>14.28439147341463</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.48526674141793</v>
+        <v>32.12697631891314</v>
       </c>
       <c r="C25">
-        <v>12.32485111582755</v>
+        <v>18.05348008315976</v>
       </c>
       <c r="D25">
-        <v>3.69527947371387</v>
+        <v>2.877034708876673</v>
       </c>
       <c r="E25">
-        <v>9.768422744724386</v>
+        <v>5.550056121812633</v>
       </c>
       <c r="F25">
-        <v>57.42124195434457</v>
+        <v>48.02139950111658</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.897370032262437</v>
+        <v>5.655634970223888</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.51606651179696</v>
+        <v>8.147488867936312</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.43613615576085</v>
+        <v>14.70481937368567</v>
       </c>
       <c r="O25">
         <v>0</v>
